--- a/fhir/indisa/StructureDefinition-profileDiagnosticReportLabKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-profileDiagnosticReportLabKlinic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="563">
   <si>
     <t>Path</t>
   </si>
@@ -603,7 +603,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|ServiceRequest)
 </t>
   </si>
   <si>
@@ -998,7 +998,7 @@
 </t>
   </si>
   <si>
-    <t>internationalCode</t>
+    <t>InternationalCode</t>
   </si>
   <si>
     <t>DiagnosticReport.code.coding.id</t>
@@ -1022,10 +1022,10 @@
     <t>DiagnosticReport.code.coding.userSelected</t>
   </si>
   <si>
-    <t>localCode</t>
-  </si>
-  <si>
-    <t>http://digitalware.com.co/salud/fhir/CodeSystem/codes-fonasa</t>
+    <t>LocalCode</t>
+  </si>
+  <si>
+    <t>https://digitalware-klinic.github.io/fhir/indisa/CodeSystem-CodesFonasa</t>
   </si>
   <si>
     <t>DiagnosticReport.code.text</t>
@@ -1038,7 +1038,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(Patient|Location)
 </t>
   </si>
   <si>
@@ -1232,57 +1232,61 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>Responsible Diagnostic Service</t>
+  </si>
+  <si>
+    <t>The diagnostic service that is responsible for issuing the report.</t>
+  </si>
+  <si>
+    <t>This is not necessarily the source of the atomic data items or the entity that interpreted the results. It is the entity that takes responsibility for the clinical report.</t>
+  </si>
+  <si>
+    <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>PRT-8 (where this PRT-4-Participation = "PO")</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.reference</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.display</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.resultsInterpreter</t>
+  </si>
+  <si>
+    <t>Analyzed by
+Reported by</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
 </t>
-  </si>
-  <si>
-    <t>Responsible Diagnostic Service</t>
-  </si>
-  <si>
-    <t>The diagnostic service that is responsible for issuing the report.</t>
-  </si>
-  <si>
-    <t>This is not necessarily the source of the atomic data items or the entity that interpreted the results. It is the entity that takes responsibility for the clinical report.</t>
-  </si>
-  <si>
-    <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>PRT-8 (where this PRT-4-Participation = "PO")</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer.reference</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer.type</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer.identifier</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer.display</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.resultsInterpreter</t>
-  </si>
-  <si>
-    <t>Analyzed by
-Reported by</t>
   </si>
   <si>
     <t>Primary result interpreter</t>
@@ -1917,45 +1921,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.80859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.4375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="62.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.9609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.90625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="59.62890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="117.76171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.71875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.40625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="171.6640625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.57421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="170.1640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="117.34765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11553,16 +11557,16 @@
         <v>53</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>395</v>
@@ -11632,7 +11636,7 @@
         <v>396</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>398</v>
@@ -11643,7 +11647,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11666,19 +11670,19 @@
         <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -11727,7 +11731,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11745,7 +11749,7 @@
         <v>43</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>335</v>
@@ -11756,7 +11760,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11865,7 +11869,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11976,7 +11980,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12087,7 +12091,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12198,7 +12202,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12309,7 +12313,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12420,11 +12424,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12443,19 +12447,19 @@
         <v>43</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>43</v>
@@ -12504,7 +12508,7 @@
         <v>43</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -12522,10 +12526,10 @@
         <v>43</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>43</v>
@@ -12533,7 +12537,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12642,7 +12646,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12753,7 +12757,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12864,7 +12868,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12975,7 +12979,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13086,7 +13090,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13197,7 +13201,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13220,16 +13224,16 @@
         <v>43</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13279,7 +13283,7 @@
         <v>43</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -13300,7 +13304,7 @@
         <v>43</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>43</v>
@@ -13308,11 +13312,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13331,17 +13335,17 @@
         <v>53</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>43</v>
@@ -13390,7 +13394,7 @@
         <v>43</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -13408,10 +13412,10 @@
         <v>43</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>43</v>
@@ -13419,7 +13423,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13528,7 +13532,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13639,11 +13643,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -13665,10 +13669,10 @@
         <v>98</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>101</v>
@@ -13723,7 +13727,7 @@
         <v>43</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -13752,7 +13756,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13778,16 +13782,16 @@
         <v>54</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>43</v>
@@ -13836,7 +13840,7 @@
         <v>43</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -13857,7 +13861,7 @@
         <v>43</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>43</v>
@@ -13865,7 +13869,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13888,13 +13892,13 @@
         <v>53</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13945,7 +13949,7 @@
         <v>43</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>52</v>
@@ -13966,7 +13970,7 @@
         <v>43</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>43</v>
@@ -13974,7 +13978,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14083,7 +14087,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14194,7 +14198,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14305,7 +14309,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14416,7 +14420,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14527,7 +14531,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14638,11 +14642,11 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14664,14 +14668,14 @@
         <v>54</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>43</v>
@@ -14720,7 +14724,7 @@
         <v>43</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -14738,10 +14742,10 @@
         <v>43</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>43</v>
@@ -14749,7 +14753,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14775,10 +14779,10 @@
         <v>143</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14808,10 +14812,10 @@
         <v>236</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>43</v>
@@ -14829,7 +14833,7 @@
         <v>43</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -14847,10 +14851,10 @@
         <v>43</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>43</v>
@@ -14858,7 +14862,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14881,19 +14885,19 @@
         <v>43</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>43</v>
@@ -14942,7 +14946,7 @@
         <v>43</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -14960,10 +14964,10 @@
         <v>43</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>43</v>
@@ -14971,7 +14975,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15080,7 +15084,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15191,7 +15195,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15217,14 +15221,14 @@
         <v>72</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>43</v>
@@ -15237,7 +15241,7 @@
         <v>43</v>
       </c>
       <c r="S120" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="T120" t="s" s="2">
         <v>43</v>
@@ -15252,10 +15256,10 @@
         <v>137</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>43</v>
@@ -15273,7 +15277,7 @@
         <v>43</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>41</v>
@@ -15291,10 +15295,10 @@
         <v>43</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>43</v>
@@ -15302,7 +15306,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15328,14 +15332,14 @@
         <v>72</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>43</v>
@@ -15348,7 +15352,7 @@
         <v>43</v>
       </c>
       <c r="S121" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T121" t="s" s="2">
         <v>43</v>
@@ -15384,7 +15388,7 @@
         <v>43</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -15405,7 +15409,7 @@
         <v>43</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>43</v>
@@ -15413,7 +15417,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15436,19 +15440,19 @@
         <v>43</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>43</v>
@@ -15497,7 +15501,7 @@
         <v>43</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -15515,10 +15519,10 @@
         <v>43</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>43</v>
@@ -15526,7 +15530,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15549,19 +15553,19 @@
         <v>53</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>43</v>
@@ -15574,7 +15578,7 @@
         <v>43</v>
       </c>
       <c r="S123" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T123" t="s" s="2">
         <v>43</v>
@@ -15610,7 +15614,7 @@
         <v>43</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -15628,10 +15632,10 @@
         <v>43</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>43</v>
@@ -15639,7 +15643,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15662,19 +15666,19 @@
         <v>53</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>43</v>
@@ -15723,7 +15727,7 @@
         <v>43</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -15744,7 +15748,7 @@
         <v>43</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>43</v>
@@ -15752,7 +15756,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15775,19 +15779,19 @@
         <v>53</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>43</v>
@@ -15836,7 +15840,7 @@
         <v>43</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -15857,7 +15861,7 @@
         <v>43</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>43</v>
@@ -15865,7 +15869,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15891,14 +15895,14 @@
         <v>54</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>43</v>
@@ -15911,7 +15915,7 @@
         <v>43</v>
       </c>
       <c r="S126" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>43</v>
@@ -15947,7 +15951,7 @@
         <v>43</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -15968,7 +15972,7 @@
         <v>43</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>43</v>
@@ -15976,7 +15980,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16002,14 +16006,14 @@
         <v>362</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>43</v>
@@ -16058,7 +16062,7 @@
         <v>43</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>41</v>
@@ -16079,7 +16083,7 @@
         <v>43</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>43</v>
